--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,13 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>waste</t>
@@ -58,9 +61,6 @@
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -70,61 +70,70 @@
     <t>small</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
@@ -133,21 +142,12 @@
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -181,40 +181,34 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>every</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -589,7 +583,7 @@
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +665,13 @@
         <v>45</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>0.8494623655913979</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6756756756756757</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6699029126213593</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65625</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>0.5753228120516499</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>296</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K10">
-        <v>0.5477178423236515</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L10">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M10">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5462184873949579</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K11">
-        <v>0.4614754098360656</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L11">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="M11">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5246376811594203</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C12">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D12">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>54</v>
@@ -1147,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5060240963855421</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K13">
-        <v>0.3756613756613756</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4251968503937008</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K14">
-        <v>0.3583333333333333</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4105263157894737</v>
+        <v>0.40625</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K15">
-        <v>0.3313253012048193</v>
+        <v>0.325</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.40625</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,13 +1315,13 @@
         <v>58</v>
       </c>
       <c r="K16">
-        <v>0.2734375</v>
+        <v>0.265625</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3838862559241706</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,31 +1359,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K17">
-        <v>0.248</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3483146067415731</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>0.2409638554216867</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3069306930693069</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C19">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K19">
-        <v>0.2365591397849462</v>
+        <v>0.1638913234005259</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>142</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2628865979381443</v>
+        <v>0.22</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,31 +1509,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K20">
-        <v>0.2167832167832168</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>112</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,37 +1541,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1965317919075145</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K21">
-        <v>0.1833333333333333</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="L21">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>931</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.19</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K22">
-        <v>0.1131339401820546</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="L22">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1364</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1884057971014493</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,31 +1659,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K23">
-        <v>0.1030640668523677</v>
+        <v>0.07466666666666667</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>322</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,49 +1691,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1867088607594937</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>257</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24">
-        <v>0.09893048128342247</v>
-      </c>
-      <c r="L24">
-        <v>37</v>
-      </c>
-      <c r="M24">
-        <v>37</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>337</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,49 +1717,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1827637444279346</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="C25">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>550</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
-        <v>0.07466666666666667</v>
-      </c>
-      <c r="L25">
-        <v>56</v>
-      </c>
-      <c r="M25">
-        <v>58</v>
-      </c>
-      <c r="N25">
-        <v>0.97</v>
-      </c>
-      <c r="O25">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>694</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1797,13 +1743,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1714285714285714</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0.02</v>
@@ -1815,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1823,25 +1769,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1387665198237885</v>
+        <v>0.1797919762258544</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>391</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1849,13 +1795,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1330645161290323</v>
+        <v>0.1607929515418502</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1867,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>215</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1875,25 +1821,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1240601503759398</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1901,25 +1847,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1182795698924731</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>246</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1927,25 +1873,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1046831955922865</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>325</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1953,13 +1899,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09821428571428571</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
         <v>44</v>
-      </c>
-      <c r="D32">
-        <v>45</v>
       </c>
       <c r="E32">
         <v>0.02</v>
@@ -1971,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>404</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1979,25 +1925,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09405940594059406</v>
+        <v>0.1178861788617886</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>549</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2005,13 +1951,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09148264984227129</v>
+        <v>0.1098591549295775</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2023,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2031,25 +1977,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0903954802259887</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>322</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2057,25 +2003,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08</v>
+        <v>0.08925619834710743</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E36">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F36">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>391</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2083,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.05990783410138249</v>
+        <v>0.07151979565772669</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F37">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>612</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2109,25 +2055,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05597964376590331</v>
+        <v>0.0598159509202454</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F38">
-        <v>0.85</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>742</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
